--- a/2017_2/204-Gnjatovic/204-1010-1-SP.xlsx
+++ b/2017_2/204-Gnjatovic/204-1010-1-SP.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\INZSERVER\RedirectedFolders\Nejab\My Documents\GitHub\PNZ\2017_2\204-Gnjatovic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView minimized="1" xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -36,11 +41,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,21 +115,41 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -226,6 +251,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -328,6 +354,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -430,35 +457,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="36660352"/>
-        <c:axId val="39910016"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2002199424"/>
+        <c:axId val="2002197248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36660352"/>
+        <c:axId val="2002199424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39910016"/>
+        <c:crossAx val="2002197248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39910016"/>
+        <c:axId val="2002197248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36660352"/>
+        <c:crossAx val="2002199424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -466,8 +509,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -479,7 +525,7 @@
           <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sl-SI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -526,9 +572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -566,9 +612,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,9 +646,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,9 +681,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -809,16 +857,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="25.5">
+    <row r="2" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75">
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1929</v>
       </c>
@@ -850,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1930</v>
       </c>
@@ -865,7 +913,7 @@
         <v>34407.4</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1931</v>
       </c>
@@ -880,7 +928,7 @@
         <v>35884.6</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1932</v>
       </c>
@@ -895,7 +943,7 @@
         <v>38783.5</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1933</v>
       </c>
@@ -910,7 +958,7 @@
         <v>26298</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1934</v>
       </c>
@@ -925,7 +973,7 @@
         <v>29374</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1935</v>
       </c>
@@ -940,7 +988,7 @@
         <v>29711</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1936</v>
       </c>
@@ -955,7 +1003,7 @@
         <v>30278.5</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1937</v>
       </c>
@@ -970,7 +1018,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1938</v>
       </c>
@@ -985,7 +1033,7 @@
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1939</v>
       </c>
@@ -1008,24 +1056,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
